--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +754,1630 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4915785</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45016.77083333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4915782</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45016.86458333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sol de América</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24 de Setiembre</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4915780</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fernando de la Mora</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4915781</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Martín Ledesma</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 de Octubre</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4915786</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atyrá</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CA Colegiales Paraguay</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4915787</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pastoreo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deportivo Santaní</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4915783</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45019.77083333334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3 de Febrero</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rubio Ñú</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['17', '65']</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4915784</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45019.86458333334</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Independiente FBC</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sportivo Carapeguá</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
@@ -2237,13 +2237,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,6 +2378,818 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5648969</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45022.45833333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>24 de Setiembre</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Martín Ledesma</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['11', '49']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5648970</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45022.45833333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pastoreo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fernando de la Mora</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4915792</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sportivo Carapeguá</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 de Febrero</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['31', '48']</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5648971</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rubio Ñú</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sol de América</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['12', '60']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3190,6 +3190,412 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5648973</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Independiente FBC</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['2', '51']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5648974</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CA Colegiales Paraguay</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Intermedia_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3593,6 +3593,412 @@
         <v>-1</v>
       </c>
       <c r="BK15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5648975</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45026.77083333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Deportivo Santaní</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Atyrá</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5648976</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Paraguay Division Intermedia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45026.86458333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12 de Octubre</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['43', '76']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK17" t="n">
         <v>-1</v>
       </c>
     </row>
